--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t xml:space="preserve">Table-1.1</t>
   </si>
@@ -315,6 +315,9 @@
       </rPr>
       <t xml:space="preserve"> per  investment round, which investment type is the most suitable for them?</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Venture</t>
   </si>
   <si>
     <t xml:space="preserve">Table -  3.1</t>
@@ -390,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -447,6 +450,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF7477B8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7477B8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -468,7 +486,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,13 +508,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADB9CA"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFADC5E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADC5E7"/>
+        <bgColor rgb="FFADB9CA"/>
       </patternFill>
     </fill>
   </fills>
@@ -576,7 +600,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -621,10 +645,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,6 +669,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,7 +697,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -673,11 +705,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -752,7 +784,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF4B183"/>
@@ -762,7 +794,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF7477B8"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -784,7 +816,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -877,7 +909,7 @@
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="9" t="n">
         <v>114949</v>
       </c>
     </row>
@@ -913,8 +945,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -925,24 +957,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" s="15" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" s="14" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -954,49 +986,59 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="17" t="n">
+        <v>11748949.13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="C6" s="18" t="n">
+        <v>958694.47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="C7" s="19" t="n">
+        <v>719818</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="19" t="n">
+        <v>73308593.03</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1042,60 +1084,60 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="19"/>
+    <row r="1" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>22</v>
+      <c r="C4" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="21"/>
+      <c r="B5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21"/>
+      <c r="B6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="21"/>
+      <c r="B7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1135,7 +1177,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
@@ -1143,147 +1185,147 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="30" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="n">
+      <c r="A5" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>32</v>
+      <c r="B5" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="n">
+      <c r="A6" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>33</v>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="n">
+      <c r="A7" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>34</v>
+      <c r="B7" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="n">
+      <c r="A8" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>35</v>
+      <c r="B8" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="n">
+      <c r="A9" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>36</v>
+      <c r="B9" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="n">
+      <c r="A10" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>37</v>
+      <c r="B10" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="n">
+      <c r="A11" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>38</v>
+      <c r="B11" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="n">
+      <c r="A12" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>39</v>
+      <c r="B12" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="n">
+      <c r="A13" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>40</v>
+      <c r="B13" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="n">
+      <c r="A14" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>41</v>
+      <c r="B14" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>

--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t xml:space="preserve">Table-1.1</t>
   </si>
@@ -332,10 +332,19 @@
     <t xml:space="preserve">Top English speaking country</t>
   </si>
   <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Second English speaking country</t>
   </si>
   <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Third English speaking country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND</t>
   </si>
   <si>
     <t xml:space="preserve">Table - 5.1</t>
@@ -945,7 +954,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1072,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1119,25 +1128,31 @@
       <c r="B5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1187,7 +1202,7 @@
   <sheetData>
     <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="26"/>
     </row>
@@ -1197,7 +1212,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -1206,19 +1221,19 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1237,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1248,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1259,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1270,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1281,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1292,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1303,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1314,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1325,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>

--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t xml:space="preserve">Table-1.1</t>
   </si>
@@ -374,12 +374,21 @@
     <t xml:space="preserve">Top Sector name (no. of investment-wise)</t>
   </si>
   <si>
+    <t xml:space="preserve">others</t>
+  </si>
+  <si>
     <t xml:space="preserve">Second Sector name (no. of investment-wise)</t>
   </si>
   <si>
+    <t xml:space="preserve">Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
     <t xml:space="preserve">Third Sector name (no. of investment-wise)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cleantech / Semiconductors </t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of investments in top sector (3)</t>
   </si>
   <si>
@@ -392,7 +401,25 @@
     <t xml:space="preserve">For point 3 (top sector count-wise), which company received the highest investment?</t>
   </si>
   <si>
+    <t xml:space="preserve">virtustream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric cloud  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstcry.com  </t>
+  </si>
+  <si>
     <t xml:space="preserve">For point 4 (second best sector count-wise), which company received the highest investment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sst inc. (formerly shotspotter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celltick technologies  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manthan systems </t>
   </si>
 </sst>
 </file>
@@ -402,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,6 +520,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -609,7 +642,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -740,6 +773,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1081,7 +1130,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1186,17 +1235,17 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.85"/>
   </cols>
   <sheetData>
@@ -1243,9 +1292,15 @@
       <c r="B5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="33" t="n">
+        <v>12063</v>
+      </c>
+      <c r="D5" s="34" t="n">
+        <v>621</v>
+      </c>
+      <c r="E5" s="35" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="n">
@@ -1254,97 +1309,151 @@
       <c r="B6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="33" t="n">
+        <v>107757097294</v>
+      </c>
+      <c r="D6" s="33" t="n">
+        <v>5379078691</v>
+      </c>
+      <c r="E6" s="33" t="n">
+        <v>2949543602</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="n">
         <v>6</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="34" t="n">
+        <v>2950</v>
+      </c>
+      <c r="D10" s="34" t="n">
+        <v>147</v>
+      </c>
+      <c r="E10" s="34" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C11" s="34" t="n">
+        <v>2174</v>
+      </c>
+      <c r="D11" s="34" t="n">
+        <v>133</v>
+      </c>
+      <c r="E11" s="34" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="C12" s="34" t="n">
+        <v>2350</v>
+      </c>
+      <c r="D12" s="34" t="n">
+        <v>130</v>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="n">
         <v>9</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1371,7 +1480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E14">
+  <conditionalFormatting sqref="A7:B7 A5:B6 A8:B11 A12:B14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1393,6 +1502,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C7:E7 D5:E5 D10:E11 C12:E12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:E13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
